--- a/assets/BOs/Amaterasu.xlsx
+++ b/assets/BOs/Amaterasu.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\OneDrive\Github\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09AAB28-671B-41BB-801C-D9D5A25F1FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1521593-D8B0-463B-AE2B-7362F5A6468C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9930" yWindow="4395" windowWidth="43200" windowHeight="23445" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Amaterasu 2 Shrine Classical Fight - By ikosaeder</t>
   </si>
@@ -355,6 +356,375 @@
   </si>
   <si>
     <t>7 to Gold (start gold)</t>
+  </si>
+  <si>
+    <t>Amaterasu 2 Shrine 2nd TC - By ikosaeder</t>
+  </si>
+  <si>
+    <t>Miko builds Shrine at Wood (*forest next to Gold* to affect gold mine) and prays.
+In Shrine: Pre-Queue Kagura tech.
+Don't send Herdables to Shrine for extra fattening (bugged atm), wait until they reach max capacity and then move them close.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 / 1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 / 1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>New Miko (spawns ca. 2:00) builds another Shrine next to *2nd Town Center* and prays.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 / 1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 / 1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 2</t>
+    </r>
+  </si>
+  <si>
+    <t>Age up at 2:42 (15/15 pop) through Minakatatomi.</t>
+  </si>
+  <si>
+    <t>Advance - Minakatatomi (2:42)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 4 / 2</t>
+    </r>
+  </si>
+  <si>
+    <t>2 / 6 / 4 / 2</t>
+  </si>
+  <si>
+    <t>Gold Villager build 1 House.
+Activate Auto-Queue Villager onto Food.
+If you want, train another Miko.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 / 6 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 2</t>
+    </r>
+  </si>
+  <si>
+    <t>When you have 330 Gold (ca. 3:45), all 4 Gold Villager move out to 2nd Town Center and start building ASAP (ca. 4:00).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 2</t>
+    </r>
+  </si>
+  <si>
+    <t>When you have 350 Wood (ca. 4:00), 3 Wood Villager move out to building 2nd Town Center and help building (completed ca. 5:00).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 0 / 2</t>
+    </r>
+  </si>
+  <si>
+    <t>3 to Food (start hunt)</t>
+  </si>
+  <si>
+    <t>7 Villager keep building 2nd Town Center (completed ca. 5:00).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 2</t>
+    </r>
+  </si>
+  <si>
+    <t>2 to Gold (start gold)
+Gold Villager build 1 Dojo and 1 Military Building of your choice.
+Train 1-2 Hero Soldiers.</t>
+  </si>
+  <si>
+    <t>7 Villager at 2nd TC to Food (Deer of the Shrine).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 2</t>
+    </r>
+  </si>
+  <si>
+    <t>Put one TC gather point on Gold.
+Train Samurais from the 1 Dojo.</t>
+  </si>
+  <si>
+    <t>Put one TC gather point on Wood (if you also train Samurais + Yumi Archers) or Food (if you train Samurais in 2 Dojos, or Samurais + Naginata Riders, or go Fast Heroic).</t>
+  </si>
+  <si>
+    <t>Use your god power at 2nd Town Center. Deer and Wolf spawn every 50 sec (max 10).</t>
   </si>
 </sst>
 </file>
@@ -452,18 +822,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -472,6 +832,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -756,171 +1140,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.85546875" style="3"/>
-    <col min="2" max="2" width="213.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="57.85546875" style="3"/>
+    <col min="2" max="2" width="213.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -931,4 +1313,209 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D140E5-774D-4359-B785-6B9C8DDAAC82}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="119.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="223.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A15:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/BOs/Amaterasu.xlsx
+++ b/assets/BOs/Amaterasu.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\OneDrive\Github\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1521593-D8B0-463B-AE2B-7362F5A6468C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6708109-4FCA-4A47-A4AF-EE9457F8FB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="4395" windowWidth="43200" windowHeight="23445" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9930" yWindow="4395" windowWidth="43200" windowHeight="23445" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>Amaterasu 2 Shrine Classical Fight - By ikosaeder</t>
   </si>
@@ -725,13 +726,257 @@
   </si>
   <si>
     <t>Use your god power at 2nd Town Center. Deer and Wolf spawn every 50 sec (max 10).</t>
+  </si>
+  <si>
+    <t>Amaterasu - Standard opening - TheRapl</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ 0 / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>3 commoners build a watermill and go on food</t>
+  </si>
+  <si>
+    <t>Miko builds Shrine</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ 0 / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>2 commoners to food</t>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>2 commoners build a watermill and go on wood</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ 2 / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>pre-queue Kagura</t>
+  </si>
+  <si>
+    <t>Miko builds a temple</t>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>3 commoners to wood</t>
+  </si>
+  <si>
+    <t>upgrade Sacred Custodians</t>
+  </si>
+  <si>
+    <t>2nd Miko makes a Shrine</t>
+  </si>
+  <si>
+    <t>Advance (2.42)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/ 5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>3 food commoners make a mining camp and go to gold</t>
+  </si>
+  <si>
+    <t>Build two houses</t>
+  </si>
+  <si>
+    <t>Pick up relics with your Miko</t>
+  </si>
+  <si>
+    <t>Classical (3.42)</t>
+  </si>
+  <si>
+    <t>4 / 5 / 3 / 0</t>
+  </si>
+  <si>
+    <t>Miko</t>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 5 / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>8 commoners to food</t>
+  </si>
+  <si>
+    <t>3rd Miko makes a Shrine</t>
+  </si>
+  <si>
+    <t>Build 2x Dojo or a Town Center</t>
+  </si>
+  <si>
+    <t>add commoners to gold</t>
+  </si>
+  <si>
+    <t>link to video</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wo1Qb4GjJyI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,8 +1033,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,8 +1087,20 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -817,12 +1108,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -857,8 +1201,42 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{704E7ECB-C4E5-41F8-9F4D-FE72C3664052}"/>
   </cellStyles>
@@ -1319,7 +1697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D140E5-774D-4359-B785-6B9C8DDAAC82}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -1518,4 +1896,212 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95570D34-3036-488E-9B50-98F5BF6B06A9}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" ht="101.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" ht="101.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{CDDAA93C-0B04-40DF-B374-D3484A51B9D8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>